--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.23284988744818</v>
+        <v>1.235259</v>
       </c>
       <c r="H2">
-        <v>1.23284988744818</v>
+        <v>2.470518</v>
       </c>
       <c r="I2">
-        <v>0.2535724036397417</v>
+        <v>0.2325174299743795</v>
       </c>
       <c r="J2">
-        <v>0.2535724036397417</v>
+        <v>0.1732109743374089</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N2">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O2">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P2">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q2">
-        <v>0.76935020186063</v>
+        <v>0.34147499796</v>
       </c>
       <c r="R2">
-        <v>0.76935020186063</v>
+        <v>2.04884998776</v>
       </c>
       <c r="S2">
-        <v>0.1384714557386445</v>
+        <v>0.04511863359246258</v>
       </c>
       <c r="T2">
-        <v>0.1384714557386445</v>
+        <v>0.03825794222969786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.23284988744818</v>
+        <v>1.235259</v>
       </c>
       <c r="H3">
-        <v>1.23284988744818</v>
+        <v>2.470518</v>
       </c>
       <c r="I3">
-        <v>0.2535724036397417</v>
+        <v>0.2325174299743795</v>
       </c>
       <c r="J3">
-        <v>0.2535724036397417</v>
+        <v>0.1732109743374089</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N3">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O3">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P3">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q3">
-        <v>0.6395031887957949</v>
+        <v>0.77699849865</v>
       </c>
       <c r="R3">
-        <v>0.6395031887957949</v>
+        <v>4.661990991900001</v>
       </c>
       <c r="S3">
-        <v>0.1151009479010972</v>
+        <v>0.102663769739855</v>
       </c>
       <c r="T3">
-        <v>0.1151009479010972</v>
+        <v>0.0870528262727914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.54250543757625</v>
+        <v>1.235259</v>
       </c>
       <c r="H4">
-        <v>0.54250543757625</v>
+        <v>2.470518</v>
       </c>
       <c r="I4">
-        <v>0.1115824474612866</v>
+        <v>0.2325174299743795</v>
       </c>
       <c r="J4">
-        <v>0.1115824474612866</v>
+        <v>0.1732109743374089</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N4">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O4">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P4">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q4">
-        <v>0.3385462189348019</v>
+        <v>0.6413069445120001</v>
       </c>
       <c r="R4">
-        <v>0.3385462189348019</v>
+        <v>2.565227778048</v>
       </c>
       <c r="S4">
-        <v>0.06093322346226945</v>
+        <v>0.08473502664206199</v>
       </c>
       <c r="T4">
-        <v>0.06093322346226945</v>
+        <v>0.04790020583491966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.54250543757625</v>
+        <v>0.5501983333333333</v>
       </c>
       <c r="H5">
-        <v>0.54250543757625</v>
+        <v>1.650595</v>
       </c>
       <c r="I5">
-        <v>0.1115824474612866</v>
+        <v>0.103565893827006</v>
       </c>
       <c r="J5">
-        <v>0.1115824474612866</v>
+        <v>0.1157251913106706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N5">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O5">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P5">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q5">
-        <v>0.2814081104287342</v>
+        <v>0.1520968272666667</v>
       </c>
       <c r="R5">
-        <v>0.2814081104287342</v>
+        <v>1.3688714454</v>
       </c>
       <c r="S5">
-        <v>0.05064922399901709</v>
+        <v>0.02009634983825275</v>
       </c>
       <c r="T5">
-        <v>0.05064922399901709</v>
+        <v>0.02556078043334561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.623588230566725</v>
+        <v>0.5501983333333333</v>
       </c>
       <c r="H6">
-        <v>0.623588230566725</v>
+        <v>1.650595</v>
       </c>
       <c r="I6">
-        <v>0.1282595457209743</v>
+        <v>0.103565893827006</v>
       </c>
       <c r="J6">
-        <v>0.1282595457209743</v>
+        <v>0.1157251913106706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N6">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O6">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P6">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q6">
-        <v>0.3891452933150294</v>
+        <v>0.3460839216388889</v>
       </c>
       <c r="R6">
-        <v>0.3891452933150294</v>
+        <v>3.11475529475</v>
       </c>
       <c r="S6">
-        <v>0.0700402952112768</v>
+        <v>0.04572760449799216</v>
       </c>
       <c r="T6">
-        <v>0.0700402952112768</v>
+        <v>0.0581614705020316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.623588230566725</v>
+        <v>0.5501983333333333</v>
       </c>
       <c r="H7">
-        <v>0.623588230566725</v>
+        <v>1.650595</v>
       </c>
       <c r="I7">
-        <v>0.1282595457209743</v>
+        <v>0.103565893827006</v>
       </c>
       <c r="J7">
-        <v>0.1282595457209743</v>
+        <v>0.1157251913106706</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N7">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O7">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P7">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q7">
-        <v>0.3234673304536519</v>
+        <v>0.28564536832</v>
       </c>
       <c r="R7">
-        <v>0.3234673304536519</v>
+        <v>1.71387220992</v>
       </c>
       <c r="S7">
-        <v>0.05821925050969751</v>
+        <v>0.03774193949076114</v>
       </c>
       <c r="T7">
-        <v>0.05821925050969751</v>
+        <v>0.03200294037529344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.54211580295365</v>
+        <v>0.7294966666666666</v>
       </c>
       <c r="H8">
-        <v>1.54211580295365</v>
+        <v>2.18849</v>
       </c>
       <c r="I8">
-        <v>0.3171821767005058</v>
+        <v>0.1373158909250691</v>
       </c>
       <c r="J8">
-        <v>0.3171821767005058</v>
+        <v>0.1534376536530703</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N8">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O8">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P8">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q8">
-        <v>0.9623451454828695</v>
+        <v>0.2016620585333333</v>
       </c>
       <c r="R8">
-        <v>0.9623451454828695</v>
+        <v>1.8149585268</v>
       </c>
       <c r="S8">
-        <v>0.1732076405462106</v>
+        <v>0.0266453373828939</v>
       </c>
       <c r="T8">
-        <v>0.1732076405462106</v>
+        <v>0.03389051364542637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.54211580295365</v>
+        <v>0.7294966666666666</v>
       </c>
       <c r="H9">
-        <v>1.54211580295365</v>
+        <v>2.18849</v>
       </c>
       <c r="I9">
-        <v>0.3171821767005058</v>
+        <v>0.1373158909250691</v>
       </c>
       <c r="J9">
-        <v>0.3171821767005058</v>
+        <v>0.1534376536530703</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N9">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O9">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P9">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q9">
-        <v>0.7999254276792065</v>
+        <v>0.458865561611111</v>
       </c>
       <c r="R9">
-        <v>0.7999254276792065</v>
+        <v>4.1297900545</v>
       </c>
       <c r="S9">
-        <v>0.1439745361542951</v>
+        <v>0.06062929135724442</v>
       </c>
       <c r="T9">
-        <v>0.1439745361542951</v>
+        <v>0.07711509884556243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.52059431026075</v>
+        <v>0.7294966666666666</v>
       </c>
       <c r="H10">
-        <v>0.52059431026075</v>
+        <v>2.18849</v>
       </c>
       <c r="I10">
-        <v>0.1070757696601895</v>
+        <v>0.1373158909250691</v>
       </c>
       <c r="J10">
-        <v>0.1070757696601895</v>
+        <v>0.1534376536530703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N10">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O10">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P10">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q10">
-        <v>0.3248727535804219</v>
+        <v>0.37873132544</v>
       </c>
       <c r="R10">
-        <v>0.3248727535804219</v>
+        <v>2.27238795264</v>
       </c>
       <c r="S10">
-        <v>0.05847220551747153</v>
+        <v>0.05004126218493078</v>
       </c>
       <c r="T10">
-        <v>0.05847220551747153</v>
+        <v>0.04243204116208151</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.52059431026075</v>
+        <v>1.715756666666667</v>
       </c>
       <c r="H11">
-        <v>0.52059431026075</v>
+        <v>5.14727</v>
       </c>
       <c r="I11">
-        <v>0.1070757696601895</v>
+        <v>0.3229633061525894</v>
       </c>
       <c r="J11">
-        <v>0.1070757696601895</v>
+        <v>0.3608812612892173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N11">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O11">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P11">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q11">
-        <v>0.2700423829942481</v>
+        <v>0.4743037729333333</v>
       </c>
       <c r="R11">
-        <v>0.2700423829942481</v>
+        <v>4.268733956399999</v>
       </c>
       <c r="S11">
-        <v>0.04860356414271794</v>
+        <v>0.06266912151796367</v>
       </c>
       <c r="T11">
-        <v>0.04860356414271794</v>
+        <v>0.079709582484587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.400270853547944</v>
+        <v>1.715756666666667</v>
       </c>
       <c r="H12">
-        <v>0.400270853547944</v>
+        <v>5.14727</v>
       </c>
       <c r="I12">
-        <v>0.08232765681730203</v>
+        <v>0.3229633061525894</v>
       </c>
       <c r="J12">
-        <v>0.08232765681730203</v>
+        <v>0.3608812612892173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N12">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O12">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P12">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q12">
-        <v>0.249785853988636</v>
+        <v>1.079239539277778</v>
       </c>
       <c r="R12">
-        <v>0.249785853988636</v>
+        <v>9.7131558535</v>
       </c>
       <c r="S12">
-        <v>0.04495769383185615</v>
+        <v>0.1425984731593032</v>
       </c>
       <c r="T12">
-        <v>0.04495769383185615</v>
+        <v>0.1813726518443302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.400270853547944</v>
+        <v>1.715756666666667</v>
       </c>
       <c r="H13">
-        <v>0.400270853547944</v>
+        <v>5.14727</v>
       </c>
       <c r="I13">
-        <v>0.08232765681730203</v>
+        <v>0.3229633061525894</v>
       </c>
       <c r="J13">
-        <v>0.08232765681730203</v>
+        <v>0.3608812612892173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N13">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O13">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P13">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q13">
-        <v>0.2076282683172035</v>
+        <v>0.8907659571200001</v>
       </c>
       <c r="R13">
-        <v>0.2076282683172035</v>
+        <v>5.34459574272</v>
       </c>
       <c r="S13">
-        <v>0.03736996298544587</v>
+        <v>0.1176957114753226</v>
       </c>
       <c r="T13">
-        <v>0.03736996298544587</v>
+        <v>0.09979902696030017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.642518</v>
+      </c>
+      <c r="H14">
+        <v>1.927554</v>
+      </c>
+      <c r="I14">
+        <v>0.1209435705971609</v>
+      </c>
+      <c r="J14">
+        <v>0.1351431183371138</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.27644</v>
+      </c>
+      <c r="N14">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P14">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q14">
+        <v>0.17761767592</v>
+      </c>
+      <c r="R14">
+        <v>1.59855908328</v>
+      </c>
+      <c r="S14">
+        <v>0.02346838534960026</v>
+      </c>
+      <c r="T14">
+        <v>0.02984971150852696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.642518</v>
+      </c>
+      <c r="H15">
+        <v>1.927554</v>
+      </c>
+      <c r="I15">
+        <v>0.1209435705971609</v>
+      </c>
+      <c r="J15">
+        <v>0.1351431183371138</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.88705</v>
+      </c>
+      <c r="O15">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P15">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q15">
+        <v>0.4041545306333333</v>
+      </c>
+      <c r="R15">
+        <v>3.6373907757</v>
+      </c>
+      <c r="S15">
+        <v>0.0534003961968398</v>
+      </c>
+      <c r="T15">
+        <v>0.06792058325153839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.642518</v>
+      </c>
+      <c r="H16">
+        <v>1.927554</v>
+      </c>
+      <c r="I16">
+        <v>0.1209435705971609</v>
+      </c>
+      <c r="J16">
+        <v>0.1351431183371138</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.038336</v>
+      </c>
+      <c r="O16">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P16">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q16">
+        <v>0.3335747850240001</v>
+      </c>
+      <c r="R16">
+        <v>2.001448710144</v>
+      </c>
+      <c r="S16">
+        <v>0.04407478905072085</v>
+      </c>
+      <c r="T16">
+        <v>0.0373728235770485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.439315</v>
+      </c>
+      <c r="H17">
+        <v>0.87863</v>
+      </c>
+      <c r="I17">
+        <v>0.08269390852379505</v>
+      </c>
+      <c r="J17">
+        <v>0.06160180107251903</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.27644</v>
+      </c>
+      <c r="N17">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P17">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q17">
+        <v>0.1214442386</v>
+      </c>
+      <c r="R17">
+        <v>0.7286654316</v>
+      </c>
+      <c r="S17">
+        <v>0.01604626440015632</v>
+      </c>
+      <c r="T17">
+        <v>0.0136062865282825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.439315</v>
+      </c>
+      <c r="H18">
+        <v>0.87863</v>
+      </c>
+      <c r="I18">
+        <v>0.08269390852379505</v>
+      </c>
+      <c r="J18">
+        <v>0.06160180107251903</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.88705</v>
+      </c>
+      <c r="O18">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P18">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q18">
+        <v>0.2763364569166667</v>
+      </c>
+      <c r="R18">
+        <v>1.6580187415</v>
+      </c>
+      <c r="S18">
+        <v>0.0365119655094716</v>
+      </c>
+      <c r="T18">
+        <v>0.03095999492740498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.439315</v>
+      </c>
+      <c r="H19">
+        <v>0.87863</v>
+      </c>
+      <c r="I19">
+        <v>0.08269390852379505</v>
+      </c>
+      <c r="J19">
+        <v>0.06160180107251903</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.038336</v>
+      </c>
+      <c r="O19">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P19">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q19">
+        <v>0.22807828992</v>
+      </c>
+      <c r="R19">
+        <v>0.9123131596800002</v>
+      </c>
+      <c r="S19">
+        <v>0.03013567861416713</v>
+      </c>
+      <c r="T19">
+        <v>0.01703551961683155</v>
       </c>
     </row>
   </sheetData>
